--- a/medicine/Psychotrope/Fils_porteurs/Fils_porteurs.xlsx
+++ b/medicine/Psychotrope/Fils_porteurs/Fils_porteurs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les fils porteurs sont à la base du palissage. Ils ont des rôles précis. Leur choix doit dépendre de plusieurs critères.
 </t>
@@ -511,7 +523,9 @@
           <t>Rôles</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ils supportent le poids de la végétation et celui du raisin. Selon les formes de taille et les pratiques régionales, ils servent d’attache ou de support aux ceps, aux baguettes, cordons ou lattes, et dans certains cas aux tuteurs
 </t>
@@ -542,7 +556,9 @@
           <t>Matériaux</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ils sont exclusivement réalisés en métal.
 </t>
@@ -573,7 +589,9 @@
           <t>Dimension</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Ils doivent être adaptés au type de taille et à la charge de raisin.
 </t>
